--- a/data/trans_orig/P1433-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D02A31E-FA7A-41AB-8981-6207E4A9FF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E6893B-2699-4037-93FA-661358332936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAAB1DFC-E1CA-446D-938F-71BCD5579AE5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4301EA38-4CDA-4AEA-9E55-F1EE78540407}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="140">
   <si>
     <t>Población con diagnóstico de esterilidad en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>2,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>95,64%</t>
+    <t>95,11%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -124,7 +124,7 @@
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,55%</t>
+    <t>97,37%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -139,13 +139,13 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -154,13 +154,13 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,79%</t>
+    <t>98,67%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,34%</t>
+    <t>99,35%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -211,13 +211,13 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -226,27 +226,21 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,3%</t>
+    <t>99,36%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>99,01%</t>
+    <t>98,94%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
     <t>99,93%</t>
   </si>
   <si>
@@ -259,153 +253,180 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,78%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
     <t>99,92%</t>
   </si>
   <si>
+    <t>99,77%</t>
+  </si>
+  <si>
     <t>99,97%</t>
   </si>
   <si>
+    <t>99,84%</t>
+  </si>
+  <si>
     <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -425,12 +446,6 @@
   </si>
   <si>
     <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -854,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A74726-1413-44E2-872B-45AEC1686DE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05247A18-30AC-410E-A099-468C7D703297}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1683,7 +1698,7 @@
         <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,10 +1713,10 @@
         <v>756676</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>24</v>
@@ -1713,13 +1728,13 @@
         <v>772964</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="7">
         <v>1389</v>
@@ -1728,13 +1743,13 @@
         <v>1529641</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,7 +1805,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1853,13 +1868,13 @@
         <v>2728</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1871,10 +1886,10 @@
         <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -1889,7 +1904,7 @@
         <v>72</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1919,13 @@
         <v>945011</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H22" s="7">
         <v>999</v>
@@ -1919,13 +1934,13 @@
         <v>1048082</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M22" s="7">
         <v>1906</v>
@@ -1940,7 +1955,7 @@
         <v>80</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2029,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2029,7 +2044,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2044,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,10 +2077,10 @@
         <v>55</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2074,13 +2089,13 @@
         <v>10306</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -2089,13 +2104,13 @@
         <v>15075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2125,13 @@
         <v>3422010</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
         <v>3284</v>
@@ -2125,13 +2140,13 @@
         <v>3542720</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M26" s="7">
         <v>6488</v>
@@ -2140,13 +2155,13 @@
         <v>6964730</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,7 +2217,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E376E0C7-1A16-4448-B6AE-0B9274F01C01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A550871-D07E-4AE7-B30B-5231A54B253F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2240,7 +2255,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2353,7 +2368,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2368,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2383,7 +2398,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2419,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2419,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2434,7 +2449,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,7 +2467,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -2467,7 +2482,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -2482,7 +2497,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -2559,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2589,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2640,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2673,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -2688,7 +2703,7 @@
         <v>24</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -2816,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2831,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2840,7 +2855,7 @@
         <v>3004</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>109</v>
@@ -2891,13 +2906,13 @@
         <v>2062340</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,7 +3037,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3046,13 +3061,13 @@
         <v>890</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,10 +3082,10 @@
         <v>758662</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>24</v>
@@ -3085,7 +3100,7 @@
         <v>24</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -3097,10 +3112,10 @@
         <v>1543673</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>24</v>
@@ -3159,7 +3174,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3243,7 +3258,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -3252,13 +3267,13 @@
         <v>1020</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +3306,7 @@
         <v>50</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>24</v>
@@ -3303,10 +3318,10 @@
         <v>1980326</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>24</v>
@@ -3383,7 +3398,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3398,7 +3413,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3413,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3443,13 @@
         <v>2874</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3443,7 +3458,7 @@
         <v>2040</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
@@ -3461,10 +3476,10 @@
         <v>61</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3494,13 @@
         <v>3391476</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>3336</v>
@@ -3494,7 +3509,7 @@
         <v>3542502</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>47</v>
@@ -3509,13 +3524,13 @@
         <v>6933978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,7 +3586,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3592,7 +3607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341E8902-DCD0-4BA3-8653-AF2FA859D23D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C72BC5-832F-4408-B35D-52219E37ED61}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,7 +3624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3719,7 +3734,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -3734,7 +3749,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -3749,7 +3764,7 @@
         <v>24</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -3773,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3788,7 +3803,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3803,7 +3818,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,7 +3839,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3839,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3854,7 +3869,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,7 +3940,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -3955,7 +3970,7 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -3979,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4030,7 +4045,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4146,7 +4161,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>26</v>
@@ -4161,7 +4176,7 @@
         <v>24</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>26</v>
@@ -4200,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4215,7 +4230,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4266,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4367,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -4367,7 +4382,7 @@
         <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -4406,7 +4421,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4421,7 +4436,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4472,7 +4487,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,7 +4543,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4558,7 +4573,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -4573,7 +4588,7 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -4749,7 +4764,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>26</v>
@@ -4764,7 +4779,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>26</v>
@@ -4773,13 +4788,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>26</v>
@@ -4803,7 +4818,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4833,7 +4848,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,7 +4869,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4884,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,7 +4941,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>26</v>
@@ -4940,7 +4955,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1433-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E6893B-2699-4037-93FA-661358332936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C1B614-14E2-4F63-BDDE-CB9EBB4D2713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4301EA38-4CDA-4AEA-9E55-F1EE78540407}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC81C4CA-F72F-4417-BCF2-1F25F8FE21BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="142">
   <si>
     <t>Población con diagnóstico de esterilidad en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -94,13 +94,13 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,89%</t>
+    <t>5,18%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,63%</t>
+    <t>2,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,7 +109,7 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>95,11%</t>
+    <t>94,82%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -124,10 +124,10 @@
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -139,13 +139,13 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,67%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -154,16 +154,16 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,67%</t>
+    <t>98,77%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -175,277 +175,283 @@
     <t>0,21%</t>
   </si>
   <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
   </si>
   <si>
     <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -869,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05247A18-30AC-410E-A099-468C7D703297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CAD166-B2FF-4023-989D-E046E611762D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1698,7 +1704,7 @@
         <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,10 +1719,10 @@
         <v>756676</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>24</v>
@@ -1728,13 +1734,13 @@
         <v>772964</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M18" s="7">
         <v>1389</v>
@@ -1743,13 +1749,13 @@
         <v>1529641</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,7 +1811,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1868,13 +1874,13 @@
         <v>2728</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1886,10 +1892,10 @@
         <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -1904,7 +1910,7 @@
         <v>72</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1925,13 @@
         <v>945011</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>999</v>
@@ -1934,13 +1940,13 @@
         <v>1048082</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M22" s="7">
         <v>1906</v>
@@ -1949,13 +1955,13 @@
         <v>1993093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,7 +2035,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2044,7 +2050,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2059,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,10 +2083,10 @@
         <v>55</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2089,10 +2095,10 @@
         <v>10306</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>87</v>
@@ -2107,7 +2113,7 @@
         <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>89</v>
@@ -2140,13 +2146,13 @@
         <v>3542720</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M26" s="7">
         <v>6488</v>
@@ -2155,13 +2161,13 @@
         <v>6964730</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,7 +2223,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2238,7 +2244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A550871-D07E-4AE7-B30B-5231A54B253F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E8AF61-A560-4B5A-86AC-373ACA480E47}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2255,7 +2261,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2368,37 +2374,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,37 +2425,37 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,7 +2473,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -2482,7 +2488,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -2497,7 +2503,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -2574,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2625,7 +2631,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2673,7 +2679,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -2703,7 +2709,7 @@
         <v>24</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>26</v>
@@ -2831,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2846,7 +2852,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2855,13 +2861,13 @@
         <v>3004</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,7 +2885,7 @@
         <v>39</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -2894,7 +2900,7 @@
         <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -2906,13 +2912,13 @@
         <v>2062340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,7 +3022,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3061,13 +3067,13 @@
         <v>890</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,10 +3088,10 @@
         <v>758662</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>24</v>
@@ -3100,7 +3106,7 @@
         <v>24</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
@@ -3112,10 +3118,10 @@
         <v>1543673</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>24</v>
@@ -3174,7 +3180,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3258,7 +3264,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -3267,7 +3273,7 @@
         <v>1020</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
@@ -3306,7 +3312,7 @@
         <v>50</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>24</v>
@@ -3321,7 +3327,7 @@
         <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>24</v>
@@ -3398,7 +3404,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3413,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3428,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3449,13 @@
         <v>2874</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3458,13 +3464,13 @@
         <v>2040</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3476,10 +3482,10 @@
         <v>61</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3500,13 @@
         <v>3391476</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>3336</v>
@@ -3509,10 +3515,10 @@
         <v>3542502</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>24</v>
@@ -3524,13 +3530,13 @@
         <v>6933978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,7 +3592,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C72BC5-832F-4408-B35D-52219E37ED61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A24CB3A-B1F9-4258-9E9D-89F2A0E18E07}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3624,7 +3630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3734,7 +3740,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>26</v>
@@ -3749,7 +3755,7 @@
         <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
@@ -3764,7 +3770,7 @@
         <v>24</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>26</v>
@@ -3788,37 +3794,37 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,37 +3845,37 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,7 +3946,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -3970,7 +3976,7 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -3994,7 +4000,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4045,7 +4051,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4161,7 +4167,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>26</v>
@@ -4176,7 +4182,7 @@
         <v>24</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>26</v>
@@ -4215,7 +4221,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4230,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,7 +4272,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4281,7 +4287,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4358,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -4367,7 +4373,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>26</v>
@@ -4382,7 +4388,7 @@
         <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>26</v>
@@ -4436,7 +4442,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4493,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,7 +4549,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4573,7 +4579,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -4588,7 +4594,7 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -4764,7 +4770,7 @@
         <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>26</v>
@@ -4779,7 +4785,7 @@
         <v>24</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>26</v>
@@ -4794,7 +4800,7 @@
         <v>24</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>26</v>
@@ -4818,7 +4824,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4833,7 +4839,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4848,7 +4854,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,7 +4875,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4884,7 +4890,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4899,7 +4905,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,7 +4961,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1433-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6958C6F-D124-490C-92DA-10E2B35E6750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B18D3393-E95B-4659-9A63-60ED7E52A9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C1DAC95-5E50-46DD-8A74-C70A44071E2F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FE235A30-A028-490B-9BEE-67B8BB98EF87}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="103">
   <si>
     <t>Población con diagnóstico de esterilidad en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -66,301 +66,256 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,94%</t>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
     <t>99,35%</t>
   </si>
   <si>
     <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -802,8 +757,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5EB84B-2EE4-4F25-95D9-4BC2149A69F2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D493B41D-27E1-4102-BBB6-56DE97C969A7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -935,85 +890,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2204</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1094</v>
+        <v>3298</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="D5" s="7">
-        <v>114671</v>
+        <v>702375</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>648</v>
       </c>
       <c r="I5" s="7">
-        <v>111905</v>
+        <v>694846</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>220</v>
+        <v>1321</v>
       </c>
       <c r="N5" s="7">
-        <v>226576</v>
+        <v>1397221</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1022,54 +977,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1084,91 +1039,91 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2204</v>
+        <v>2145</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2204</v>
+        <v>2145</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
-        <v>549</v>
+        <v>936</v>
       </c>
       <c r="I8" s="7">
-        <v>582941</v>
+        <v>1026828</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>1101</v>
+        <v>1872</v>
       </c>
       <c r="N8" s="7">
-        <v>1170645</v>
+        <v>2044776</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1177,153 +1132,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2145</v>
+        <v>3101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2145</v>
+        <v>4048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D11" s="7">
-        <v>1017947</v>
+        <v>756676</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>936</v>
+        <v>701</v>
       </c>
       <c r="I11" s="7">
-        <v>1026828</v>
+        <v>772964</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
-        <v>1872</v>
+        <v>1389</v>
       </c>
       <c r="N11" s="7">
-        <v>2044775</v>
+        <v>1529641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1332,153 +1287,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>776065</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1533689</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>947</v>
+        <v>2728</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>3101</v>
+        <v>2856</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>4048</v>
+        <v>5584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>688</v>
+        <v>907</v>
       </c>
       <c r="D14" s="7">
-        <v>756676</v>
+        <v>945011</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
-        <v>701</v>
+        <v>999</v>
       </c>
       <c r="I14" s="7">
-        <v>772964</v>
+        <v>1048082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
-        <v>1389</v>
+        <v>1906</v>
       </c>
       <c r="N14" s="7">
-        <v>1529641</v>
+        <v>1993093</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1487,153 +1442,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>776065</v>
+        <v>1050938</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1912</v>
       </c>
       <c r="N15" s="7">
-        <v>1533689</v>
+        <v>1998677</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>2728</v>
+        <v>4769</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>2856</v>
+        <v>10306</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>5584</v>
+        <v>15075</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>907</v>
+        <v>3204</v>
       </c>
       <c r="D17" s="7">
-        <v>945011</v>
+        <v>3422010</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
-        <v>999</v>
+        <v>3284</v>
       </c>
       <c r="I17" s="7">
-        <v>1048082</v>
+        <v>3542720</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
-        <v>1906</v>
+        <v>6488</v>
       </c>
       <c r="N17" s="7">
-        <v>1993093</v>
+        <v>6964730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1642,217 +1597,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>3294</v>
       </c>
       <c r="I18" s="7">
-        <v>1050938</v>
+        <v>3553026</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1912</v>
+        <v>6503</v>
       </c>
       <c r="N18" s="7">
-        <v>1998677</v>
+        <v>6979805</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4769</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="7">
-        <v>10</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10306</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="7">
-        <v>15</v>
-      </c>
-      <c r="N19" s="7">
-        <v>15075</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="A19" t="s">
         <v>81</v>
       </c>
-      <c r="Q19" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3204</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3422010</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3284</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3542720</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6488</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6964730</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3294</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553026</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6503</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6979805</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1865,8 +1664,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA81E69-0B40-43CC-A00A-4668AB723CB2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F7F5D3-D36D-4212-8B86-498EEF5923CF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1882,7 +1681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1992,10 +1791,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2007,10 +1806,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2022,61 +1821,61 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D5" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I5" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M5" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N5" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,153 +1884,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1984</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>3004</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>539</v>
+        <v>949</v>
       </c>
       <c r="D8" s="7">
-        <v>558254</v>
+        <v>1020447</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7">
+        <v>976</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1041893</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1925</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2062340</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>551</v>
-      </c>
-      <c r="I8" s="7">
-        <v>559479</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1090</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1117733</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,153 +2039,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1984</v>
+        <v>890</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>1020</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>890</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3004</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>949</v>
+        <v>695</v>
       </c>
       <c r="D11" s="7">
-        <v>1020447</v>
+        <v>758662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>976</v>
+        <v>736</v>
       </c>
       <c r="I11" s="7">
-        <v>1041893</v>
+        <v>785011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7">
-        <v>1925</v>
+        <v>1431</v>
       </c>
       <c r="N11" s="7">
-        <v>2062340</v>
+        <v>1543673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,153 +2194,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
-        <v>890</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>1020</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>890</v>
+        <v>1020</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>695</v>
+        <v>932</v>
       </c>
       <c r="D14" s="7">
-        <v>758662</v>
+        <v>937567</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
-        <v>736</v>
+        <v>958</v>
       </c>
       <c r="I14" s="7">
-        <v>785011</v>
+        <v>1042759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>1431</v>
+        <v>1890</v>
       </c>
       <c r="N14" s="7">
-        <v>1543673</v>
+        <v>1980326</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,153 +2349,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2874</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1020</v>
+        <v>2040</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>1020</v>
+        <v>4914</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>932</v>
+        <v>3228</v>
       </c>
       <c r="D17" s="7">
-        <v>937567</v>
+        <v>3391476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
-        <v>958</v>
+        <v>3336</v>
       </c>
       <c r="I17" s="7">
-        <v>1042759</v>
+        <v>3542502</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" s="7">
-        <v>1890</v>
+        <v>6564</v>
       </c>
       <c r="N17" s="7">
-        <v>1980326</v>
+        <v>6933978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,217 +2504,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2874</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2040</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4914</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3228</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3391476</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3336</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3542502</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6564</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6933978</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>90</v>
+      <c r="A19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
